--- a/ondc/src/main/resources/rules/DpCalculate.xlsx
+++ b/ondc/src/main/resources/rules/DpCalculate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -31,8 +31,47 @@
     <t xml:space="preserve">Import</t>
   </si>
   <si>
-    <t xml:space="preserve">com.example.ondc.model.DroolsInputDto,
-com.example.ondc.utils.DateUtils</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">com.example.ondc.model.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DroolEngineDto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">com.example.ondc.utils.DateUtils</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -53,25 +92,7 @@
     <t xml:space="preserve">ACTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$dpDto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">DroolsInputDto</t>
-    </r>
+    <t xml:space="preserve">$dpDto:DroolEngineDto</t>
   </si>
   <si>
     <r>
@@ -189,35 +210,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">dpDto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.getPincode()</t>
-    </r>
+    <t xml:space="preserve">$dpDto.getPincode()</t>
   </si>
   <si>
     <t xml:space="preserve">$1&lt;=$dpDto.getCurrentNoOfOrderInPincode() &amp;&amp; $dpDto.getCurrentNoOfOrderInPincode()&lt;=$2</t>
@@ -299,6 +292,15 @@
   </si>
   <si>
     <t xml:space="preserve">3999.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"T-Shirt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 10</t>
   </si>
 </sst>
 </file>
@@ -308,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -347,21 +349,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -379,20 +383,6 @@
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -533,7 +523,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,11 +531,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,7 +547,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,11 +555,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -591,12 +581,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -668,11 +658,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
@@ -687,7 +677,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="51.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="51.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="60.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="12" t="s">
         <v>10</v>
@@ -981,6 +970,41 @@
       <c r="K11" s="23"/>
       <c r="L11" s="24" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>-25.01</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ondc/src/main/resources/rules/DpCalculate.xlsx
+++ b/ondc/src/main/resources/rules/DpCalculate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -300,7 +300,19 @@
     <t xml:space="preserve">"T-Shirt"</t>
   </si>
   <si>
+    <t xml:space="preserve">"12-01-2023"</t>
+  </si>
+  <si>
     <t xml:space="preserve">1, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"winter"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11, 100</t>
   </si>
 </sst>
 </file>
@@ -310,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -396,6 +408,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -478,7 +495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -577,6 +594,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -652,17 +673,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
@@ -981,16 +1002,16 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19"/>
       <c r="I12" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="23"/>
@@ -1004,6 +1025,43 @@
         <v>15.01</v>
       </c>
       <c r="O12" s="1" t="n">
+        <v>-25.01</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24" t="n">
+        <v>-50</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O13" s="1" t="n">
         <v>-25.01</v>
       </c>
     </row>

--- a/ondc/src/main/resources/rules/DpCalculate.xlsx
+++ b/ondc/src/main/resources/rules/DpCalculate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -131,92 +131,138 @@
     <t xml:space="preserve">$dpDto.getSeason() in ($param)</t>
   </si>
   <si>
-    <t xml:space="preserve">DateUtils.isGreaterOrEqualDate($dpDto.getZone() ,$param, $dpDto.getDate() )</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DateUtils.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">isCompareDateRange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">($dpDto.getZone(),$dpDto.getZonedExpireDateTime() ,$1,$2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">DateUtils.isCompareTimeRange</t>
+    </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DateUtils.</t>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">$dpDto.getZone(),</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">$dpDto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">getZonedExpireDateTime() ,$1,$2)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">$dpDto.getPincode()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1&lt;=$dpDto.getCurrentNoOfOrderInPincode() &amp;&amp; $dpDto.getCurrentNoOfOrderInPincode()&lt;=$2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$1&lt;=$dpDto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">isLessOrEqualDate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">($dpDto.getZone() ,$param,$dpDto.getDate() )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DateUtils.isGreaterOrEqualTime($dpDto.getZone() ,$param, $dpDto.getDate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">() )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DateUtils.isLessOrEqualTime($dpDto.getZone() ,$param, $dpDto.getDate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">() )</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$dpDto.getPincode()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1&lt;=$dpDto.getCurrentNoOfOrderInPincode() &amp;&amp; $dpDto.getCurrentNoOfOrderInPincode()&lt;=$2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1&lt;=$dpDto.getMrp() &amp;&amp; $dpDto.getMrp()&lt;=$2</t>
+      </rPr>
+      <t xml:space="preserve">getBasePrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">() &amp;&amp; $dpDto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">getBasePrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">()&lt;=$2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">$1&lt;=$dpDto.getAvailableInventory() &amp;&amp; $dpDto.getAvailableInventory()&lt;=$2</t>
@@ -234,22 +280,68 @@
     <t xml:space="preserve">$dpDto.setOrderPercentage(DateUtils.isMultiple($dpDto.getOrderWeightage(),$param));</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$dpDto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">setPerishablePercentage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(DateUtils.isMultiple($dpDto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">getPerishableWeitage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(),$param));</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Cateogries</t>
   </si>
   <si>
     <t xml:space="preserve">Seasons</t>
   </si>
   <si>
-    <t xml:space="preserve">DateRange Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateRange Upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeLower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeUpper</t>
+    <t xml:space="preserve">DateRange in Days(LL,UP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeLinit in Minutes(LL,UL)</t>
   </si>
   <si>
     <t xml:space="preserve">pincode</t>
@@ -258,7 +350,7 @@
     <t xml:space="preserve">No of orders Range in pincode(LL,UL)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrp Range(LL,UL)</t>
+    <t xml:space="preserve">Base Price Range(LL,UL)</t>
   </si>
   <si>
     <t xml:space="preserve">inventoryRange(LL,UL)</t>
@@ -276,18 +368,15 @@
     <t xml:space="preserve">Set  order %</t>
   </si>
   <si>
+    <t xml:space="preserve">Set  phisable %</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">"CitiZ"</t>
   </si>
   <si>
-    <t xml:space="preserve">"12-01-2021"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"12-01-2022"</t>
-  </si>
-  <si>
     <t xml:space="preserve">B3</t>
   </si>
   <si>
@@ -300,9 +389,6 @@
     <t xml:space="preserve">"T-Shirt"</t>
   </si>
   <si>
-    <t xml:space="preserve">"12-01-2023"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1, 10</t>
   </si>
   <si>
@@ -313,6 +399,24 @@
   </si>
   <si>
     <t xml:space="preserve">11, 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30, 40</t>
   </si>
 </sst>
 </file>
@@ -322,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -390,10 +494,35 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -411,6 +540,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -495,7 +625,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,10 +682,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -564,50 +706,46 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -673,31 +811,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="88.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="77.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="44.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="65.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="80.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="51.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="51.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="60.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="88.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="59.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="44.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="44.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="65.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="80.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="51.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="51.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="60.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="76.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="15" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,8 +855,6 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -733,8 +871,6 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -744,29 +880,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -774,15 +906,13 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -794,40 +924,37 @@
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>8</v>
+      <c r="J6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -843,11 +970,9 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="31.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="13" t="s">
         <v>11</v>
@@ -855,222 +980,232 @@
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="14" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="15" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="B10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>-25.01</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24" t="n">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26" t="n">
         <v>5.01</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>5.01</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="O10" s="1" t="n">
+      <c r="L12" s="1" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="M12" s="1" t="n">
         <v>-25.01</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>-25.01</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22" t="s">
+      <c r="N14" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>-25.01</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="N15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="22" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24" t="n">
-        <v>-50</v>
-      </c>
-      <c r="M13" s="1" t="n">
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>-10</v>
       </c>
-      <c r="N13" s="1" t="n">
-        <v>-8</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>-25.01</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ondc/src/main/resources/rules/DpCalculate.xlsx
+++ b/ondc/src/main/resources/rules/DpCalculate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -135,8 +135,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DateUtils.</t>
@@ -147,6 +147,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">isCompareDateRange</t>
     </r>
@@ -154,8 +155,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">($dpDto.getZone(),$dpDto.getZonedExpireDateTime() ,$1,$2)</t>
@@ -168,6 +169,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DateUtils.isCompareTimeRange</t>
     </r>
@@ -177,6 +179,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">( </t>
     </r>
@@ -186,6 +189,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$dpDto.getZone(),</t>
     </r>
@@ -195,6 +199,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$dpDto.</t>
     </r>
@@ -204,6 +209,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getZonedExpireDateTime() ,$1,$2)</t>
     </r>
@@ -219,8 +225,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$1&lt;=$dpDto.</t>
@@ -231,6 +237,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getBasePrice</t>
     </r>
@@ -238,8 +245,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">() &amp;&amp; $dpDto.</t>
@@ -250,6 +257,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getBasePrice</t>
     </r>
@@ -257,8 +265,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">()&lt;=$2</t>
@@ -284,8 +292,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$dpDto.</t>
@@ -294,8 +302,8 @@
       <rPr>
         <sz val="13"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">setPerishablePercentage</t>
@@ -304,8 +312,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(DateUtils.isMultiple($dpDto.</t>
@@ -314,8 +322,8 @@
       <rPr>
         <sz val="13"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getPerishableWeitage</t>
@@ -324,8 +332,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(),$param));</t>
@@ -417,6 +425,15 @@
   </si>
   <si>
     <t xml:space="preserve">30, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Citi30"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"winter2"</t>
   </si>
 </sst>
 </file>
@@ -426,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -494,35 +511,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -537,12 +529,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -625,7 +611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,11 +668,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,10 +676,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -710,15 +688,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,6 +710,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -817,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -983,7 +961,7 @@
       <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -998,81 +976,81 @@
       <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26" t="n">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="n">
         <v>5.01</v>
       </c>
       <c r="K10" s="1" t="n">
@@ -1086,40 +1064,40 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="24" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26" t="n">
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23" t="n">
         <v>5.01</v>
       </c>
       <c r="K12" s="1" t="n">
@@ -1133,24 +1111,24 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="24" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26" t="n">
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23" t="n">
         <v>-50</v>
       </c>
       <c r="K13" s="1" t="n">
@@ -1197,6 +1175,29 @@
       </c>
       <c r="N16" s="0" t="n">
         <v>-10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
